--- a/static/Stimul_4_1.xlsx
+++ b/static/Stimul_4_1.xlsx
@@ -341,241 +341,241 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>static\К1.jpg</t>
-  </si>
-  <si>
-    <t>static\К2.jpg</t>
-  </si>
-  <si>
-    <t>static\К9.jpg</t>
-  </si>
-  <si>
-    <t>static\К10.jpg</t>
-  </si>
-  <si>
-    <t>static\К11.jpg</t>
-  </si>
-  <si>
-    <t>static\К12.jpg</t>
-  </si>
-  <si>
-    <t>static\К16.jpg</t>
-  </si>
-  <si>
-    <t>static\К17.jpg</t>
-  </si>
-  <si>
-    <t>static\К18.jpg</t>
-  </si>
-  <si>
-    <t>static\К19.jpg</t>
-  </si>
-  <si>
-    <t>static\К26.jpg</t>
-  </si>
-  <si>
-    <t>static\К27.jpg</t>
-  </si>
-  <si>
-    <t>static\К28.jpg</t>
-  </si>
-  <si>
-    <t>static\К29.jpg</t>
-  </si>
-  <si>
-    <t>static\К33.jpg</t>
-  </si>
-  <si>
-    <t>static\К34.jpg</t>
-  </si>
-  <si>
-    <t>static\К35.jpg</t>
-  </si>
-  <si>
-    <t>static\К36.jpg</t>
-  </si>
-  <si>
-    <t>static\К37.jpg</t>
-  </si>
-  <si>
-    <t>static\К38.jpg</t>
-  </si>
-  <si>
-    <t>static\К43.jpg</t>
-  </si>
-  <si>
-    <t>static\К44.jpg</t>
-  </si>
-  <si>
-    <t>static\К45.jpg</t>
-  </si>
-  <si>
-    <t>static\К46.jpg</t>
-  </si>
-  <si>
-    <t>static\К47.jpg</t>
-  </si>
-  <si>
-    <t>static\К48.jpg</t>
-  </si>
-  <si>
-    <t>static\К49.jpg</t>
-  </si>
-  <si>
-    <t>static\К50.jpg</t>
-  </si>
-  <si>
-    <t>static\К51.jpg</t>
-  </si>
-  <si>
-    <t>static\К52.jpg</t>
-  </si>
-  <si>
-    <t>static\К53.jpg</t>
-  </si>
-  <si>
-    <t>static\К54.jpg</t>
-  </si>
-  <si>
-    <t>static\К55.jpg</t>
-  </si>
-  <si>
-    <t>static\К56.jpg</t>
-  </si>
-  <si>
-    <t>static\К57.jpg</t>
-  </si>
-  <si>
-    <t>static\К58.jpg</t>
-  </si>
-  <si>
-    <t>static\К59.jpg</t>
-  </si>
-  <si>
-    <t>static\К60.jpg</t>
-  </si>
-  <si>
-    <t>static\К61.jpg</t>
-  </si>
-  <si>
-    <t>static\К62.jpg</t>
-  </si>
-  <si>
-    <t>static\К63.jpg</t>
-  </si>
-  <si>
-    <t>static\К64.jpg</t>
-  </si>
-  <si>
-    <t>static\К65.jpg</t>
-  </si>
-  <si>
-    <t>static\К66.jpg</t>
-  </si>
-  <si>
-    <t>static\К67.jpg</t>
-  </si>
-  <si>
-    <t>static\К68.jpg</t>
-  </si>
-  <si>
-    <t>static\К69.jpg</t>
-  </si>
-  <si>
-    <t>static\К70.jpg</t>
-  </si>
-  <si>
-    <t>static\К71.jpg</t>
-  </si>
-  <si>
-    <t>static\К72.jpg</t>
-  </si>
-  <si>
-    <t>static\К73.jpg</t>
-  </si>
-  <si>
-    <t>static\К74.jpg</t>
-  </si>
-  <si>
-    <t>static\К75.jpg</t>
-  </si>
-  <si>
-    <t>static\К76.jpg</t>
-  </si>
-  <si>
-    <t>static\К77.jpg</t>
-  </si>
-  <si>
-    <t>static\К78.jpg</t>
-  </si>
-  <si>
-    <t>static\К79.jpg</t>
-  </si>
-  <si>
-    <t>static\К80.jpg</t>
-  </si>
-  <si>
-    <t>static\К81.jpg</t>
-  </si>
-  <si>
-    <t>static\К82.jpg</t>
-  </si>
-  <si>
-    <t>static\К83.jpg</t>
-  </si>
-  <si>
-    <t>static\К84.jpg</t>
-  </si>
-  <si>
-    <t>static\К85.jpg</t>
-  </si>
-  <si>
-    <t>static\К86.jpg</t>
-  </si>
-  <si>
-    <t>static\К87.jpg</t>
-  </si>
-  <si>
-    <t>static\К88.jpg</t>
-  </si>
-  <si>
-    <t>static\К89.jpg</t>
-  </si>
-  <si>
-    <t>static\К90.jpg</t>
-  </si>
-  <si>
-    <t>static\К91.jpg</t>
-  </si>
-  <si>
-    <t>static\К92.jpg</t>
-  </si>
-  <si>
-    <t>static\К93.jpg</t>
-  </si>
-  <si>
-    <t>static\К94.jpg</t>
-  </si>
-  <si>
-    <t>static\К95.jpg</t>
-  </si>
-  <si>
-    <t>static\К96.jpg</t>
-  </si>
-  <si>
-    <t>static\К97.jpg</t>
-  </si>
-  <si>
-    <t>static\К98.jpg</t>
-  </si>
-  <si>
-    <t>static\К99.jpg</t>
-  </si>
-  <si>
-    <t>static\К100.jpg</t>
-  </si>
-  <si>
-    <t>static\К101.jpg</t>
+    <t>..\static\К1.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К2.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К9.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К10.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К11.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К12.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К16.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К17.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К18.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К19.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К26.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К27.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К28.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К29.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К33.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К34.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К35.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К36.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К37.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К38.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К43.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К44.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К45.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К46.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К47.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К48.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К49.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К50.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К51.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К52.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К53.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К54.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К55.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К56.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К57.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К58.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К59.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К60.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К61.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К62.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К63.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К64.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К65.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К66.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К67.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К68.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К69.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К70.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К71.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К72.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К73.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К74.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К75.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К76.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К77.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К78.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К79.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К80.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К81.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К82.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К83.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К84.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К85.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К86.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К87.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К88.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К89.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К90.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К91.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К92.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К93.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К94.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К95.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К96.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К97.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К98.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К99.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К100.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К101.jpg</t>
   </si>
 </sst>
 </file>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2028,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="К2"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId2" display="static\К1.jpg"/>
     <hyperlink ref="B4" r:id="rId3" display="К9"/>
     <hyperlink ref="B5" r:id="rId4" display="К10"/>
     <hyperlink ref="B6" r:id="rId5" display="К11"/>
